--- a/Question_Set2/Role-specific skills/DevOps.xlsx
+++ b/Question_Set2/Role-specific skills/DevOps.xlsx
@@ -16,23 +16,65 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Which Linux utility can be used to troubleshoot DNS problems?', 'ques_type': 2, 'options': ['dig', 'ifconfig', 'netstat', 'telnet'], 'score': 'dig'}, {'title': 'Which of the following are common continuous integration steps?', 'ques_type': 15, 'options': ['Compilation', 'Deployment in a live system', 'Code refactoring', 'Unit testing', 'Integration testing'], 'score': ['Compilation', 'Unit testing', 'Integration testing']}, {'title': 'Which of the following cloud concepts is best suited to enhance the availability of your application?', 'ques_type': 2, 'options': ['The use of cloud availability zones.', 'The use of multiple cloud providers.', 'The use of autoscaling groups.', 'The use of hybrid cloud.'], 'score': 'The use of cloud availability zones.'}, {'title': 'What git command will create a branch called feature/testgorilla?', 'ques_type': 2, 'options': ['git checkout -b feature/testgorilla', 'git branch -c feature/testgorilla', 'git create --branch feature/testgorilla', 'git add --branch feature/testgorilla'], 'score': 'git checkout -b feature/testgorilla'}]</t>
+    <t>questions = [
+    {
+        "title": "Which Linux utility can be used to troubleshoot DNS problems?",
+        "ques_type": 2,
+        "options": [
+            "dig",
+            "ifconfig",
+            "netstat",
+            "telnet"
+        ],
+        "score": "dig"
+    },
+    {
+        "title": "Which of the following are common continuous integration steps?",
+        "ques_type": 15,
+        "options": [
+            "Compilation",
+            "Deployment in a live system",
+            "Code refactoring",
+            "Unit testing",
+            "Integration testing"
+        ],
+        "score": [
+            "Compilation",
+            "Unit testing",
+            "Integration testing"
+        ]
+    },
+    {
+        "title": "Which of the following cloud concepts is best suited to enhance the availability of your application?",
+        "ques_type": 2,
+        "options": [
+            "The use of cloud availability zones.",
+            "The use of multiple cloud providers.",
+            "The use of autoscaling groups.",
+            "The use of hybrid cloud."
+        ],
+        "score": "The use of cloud availability zones."
+    },
+    {
+        "title": "What git command will create a branch called feature/testgorilla?",
+        "ques_type": 2,
+        "options": [
+            "git checkout -b feature/testgorilla",
+            "git branch -c feature/testgorilla",
+            "git create --branch feature/testgorilla",
+            "git add --branch feature/testgorilla"
+        ],
+        "score": "git checkout -b feature/testgorilla"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +98,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +398,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
